--- a/cypress/downloads/TürkçeExcelŞablonu.xlsx
+++ b/cypress/downloads/TürkçeExcelŞablonu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdulkerim.hicip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdulkerim.hicip\Desktop\product-catalog-dev-work-order-excell-templates (1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4453EDF-5E97-4E87-89A4-A2B26AB9A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DF9F2C-9810-4F94-9CC5-89D02BBBE1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2625" windowWidth="23250" windowHeight="12570" xr2:uid="{7B5CF402-CF17-AC45-B0F4-F17CEBA46C2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B5CF402-CF17-AC45-B0F4-F17CEBA46C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Template" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Excel Template'!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Link/URL</t>
   </si>
@@ -68,12 +68,18 @@
     <t>Brüt Ağırlık</t>
   </si>
   <si>
+    <t>Teknik Notlar</t>
+  </si>
+  <si>
     <t>Elma</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
+    <t>kg</t>
+  </si>
+  <si>
     <t>meyve</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
     <t>0808101000</t>
   </si>
   <si>
+    <t>adet</t>
+  </si>
+  <si>
+    <t>Yiyecek</t>
+  </si>
+  <si>
     <t>https://www.google.com/search?q=elma&amp;sca_esv=577106327&amp;rlz=1C5CHFA_enTR1042TR1043&amp;tbm=isch&amp;sxsrf=AM9HkKlDwMRuOesBhs6vuJ1R2DmTo8nuug:1698395201413&amp;source=lnms&amp;sa=X&amp;ved=2ahUKEwiqiKyV55WCAxWgYPEDHXtMDa4Q_AUoAXoECAEQAw&amp;biw=1440&amp;bih=821&amp;dpr=2</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t>Tarife-CH</t>
   </si>
   <si>
+    <t>MERHABA12546</t>
+  </si>
+  <si>
     <t>Ticari Tanım</t>
   </si>
   <si>
@@ -149,21 +164,27 @@
     <t>010121000000</t>
   </si>
   <si>
+    <t>Article1</t>
+  </si>
+  <si>
     <t>Tedarikçi ID-1</t>
   </si>
   <si>
     <t>Tedarikçi ID-2</t>
   </si>
   <si>
+    <t>34uHv</t>
+  </si>
+  <si>
+    <t>Bilinen Dual Use Kodu</t>
+  </si>
+  <si>
     <t>İhracat Tarife Ek Kod</t>
   </si>
   <si>
     <t>İthalat Tarife Ek Kod</t>
   </si>
   <si>
-    <t>Bilinen Dual Use Kodu</t>
-  </si>
-  <si>
     <t>Eşya Tarifesi TARIC İhracat</t>
   </si>
   <si>
@@ -188,6 +209,21 @@
     <t>Eşya Açıklaması-EN</t>
   </si>
   <si>
+    <t>Eşya Grubu</t>
+  </si>
+  <si>
+    <t>Eşya Tarifesi TARIC İhracat-EU</t>
+  </si>
+  <si>
+    <t>Eşya Tarifesi TARIC İthalat-EU</t>
+  </si>
+  <si>
+    <t>Eşya Tarifesi HMRC İhracat-UK</t>
+  </si>
+  <si>
+    <t>Eşya Tarifesi HMRC İthalat-UK</t>
+  </si>
+  <si>
     <t>Üretici İsmi-1</t>
   </si>
   <si>
@@ -215,43 +251,22 @@
     <t>Üretici1</t>
   </si>
   <si>
+    <t>Üretici2</t>
+  </si>
+  <si>
     <t>Ü-1</t>
   </si>
   <si>
-    <t>Üretici2</t>
-  </si>
-  <si>
     <t>Ü-2</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Article1</t>
-  </si>
-  <si>
-    <t>adet</t>
-  </si>
-  <si>
-    <t>Yiyecek</t>
-  </si>
-  <si>
-    <t>MERHABA12546</t>
-  </si>
-  <si>
-    <t>Model No</t>
-  </si>
-  <si>
-    <t>Teknik Notlar</t>
+    <t>Menşei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -278,30 +293,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Inter"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="8"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Inter"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Inter"/>
       <charset val="162"/>
     </font>
@@ -320,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -362,23 +377,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -391,48 +393,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,246 +760,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A66BA94-30B1-624C-AF7F-49DA7122FD9A}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="108" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.59765625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="20.625" style="3"/>
-    <col min="6" max="7" width="20.625" style="2"/>
-    <col min="8" max="8" width="20.625" style="1"/>
-    <col min="9" max="44" width="20.625" style="3"/>
-    <col min="45" max="16384" width="20.625" style="1"/>
+    <col min="1" max="5" width="20.59765625" style="4"/>
+    <col min="6" max="7" width="20.59765625" style="3"/>
+    <col min="8" max="8" width="20.59765625" style="2"/>
+    <col min="9" max="13" width="20.59765625" style="4"/>
+    <col min="14" max="16" width="20.59765625" style="2"/>
+    <col min="17" max="48" width="20.59765625" style="4"/>
+    <col min="49" max="16384" width="20.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:49" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="30" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AM2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A2" xr:uid="{8A66BA94-30B1-624C-AF7F-49DA7122FD9A}"/>
